--- a/outputs/output_from_input2.xlsx
+++ b/outputs/output_from_input2.xlsx
@@ -452,3202 +452,3202 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T157</t>
+          <t>T150</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.16428105666231</v>
+        <v>21.45606346719135</v>
       </c>
       <c r="D2" t="n">
-        <v>49.17113165737882</v>
+        <v>48.05626567670127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T134</t>
+          <t>T13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.24282139100984</v>
+        <v>21.4287139383528</v>
       </c>
       <c r="D3" t="n">
-        <v>49.00693828982322</v>
+        <v>48.42099638685701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T106</t>
+          <t>T93</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.3856760789354</v>
+        <v>21.38655993589873</v>
       </c>
       <c r="D4" t="n">
-        <v>49.01079783051559</v>
+        <v>48.55011746193211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T173</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.56158647798722</v>
+        <v>21.18967665281369</v>
       </c>
       <c r="D5" t="n">
-        <v>48.89172455145335</v>
+        <v>48.77265676673816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T177</t>
+          <t>T89</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.54211953233473</v>
+        <v>21.12228808441862</v>
       </c>
       <c r="D6" t="n">
-        <v>48.81663270505458</v>
+        <v>48.86590855359692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T83</t>
+          <t>T137</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.60688544359926</v>
+        <v>21.04243931185057</v>
       </c>
       <c r="D7" t="n">
-        <v>48.84787180030983</v>
+        <v>49.15426574034797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T79</t>
+          <t>T157</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.66049301807649</v>
+        <v>21.16428105666231</v>
       </c>
       <c r="D8" t="n">
-        <v>48.75102418137605</v>
+        <v>49.17113165737882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T144</t>
+          <t>T134</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.76855773555562</v>
+        <v>21.24282139100984</v>
       </c>
       <c r="D9" t="n">
-        <v>49.08572878330673</v>
+        <v>49.00693828982322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T61</t>
+          <t>T106</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.76657775251489</v>
+        <v>21.3856760789354</v>
       </c>
       <c r="D10" t="n">
-        <v>48.90697757844922</v>
+        <v>49.01079783051559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T56</t>
+          <t>T173</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.89463522661742</v>
+        <v>21.56158647798722</v>
       </c>
       <c r="D11" t="n">
-        <v>48.72514790242909</v>
+        <v>48.89172455145335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T172</t>
+          <t>T177</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.71735775556904</v>
+        <v>21.54211953233473</v>
       </c>
       <c r="D12" t="n">
-        <v>48.5856287256459</v>
+        <v>48.81663270505458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T151</t>
+          <t>T83</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.64157877862188</v>
+        <v>21.60688544359926</v>
       </c>
       <c r="D13" t="n">
-        <v>48.38865208288166</v>
+        <v>48.84787180030983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T117</t>
+          <t>T79</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.90749813169777</v>
+        <v>21.66049301807649</v>
       </c>
       <c r="D14" t="n">
-        <v>48.28022910194301</v>
+        <v>48.75102418137605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T138</t>
+          <t>T61</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.98119479998497</v>
+        <v>21.76657775251489</v>
       </c>
       <c r="D15" t="n">
-        <v>48.34209091746697</v>
+        <v>48.90697757844922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T148</t>
+          <t>T56</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.07449826749127</v>
+        <v>21.89463522661742</v>
       </c>
       <c r="D16" t="n">
-        <v>48.43877121322832</v>
+        <v>48.72514790242909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T121</t>
+          <t>T172</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.15397796128522</v>
+        <v>21.71735775556904</v>
       </c>
       <c r="D17" t="n">
-        <v>48.42222841390716</v>
+        <v>48.5856287256459</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T90</t>
+          <t>T151</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.24993277153792</v>
+        <v>21.64157877862188</v>
       </c>
       <c r="D18" t="n">
-        <v>48.49486552604214</v>
+        <v>48.38865208288166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T42</t>
+          <t>T117</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.49811078042725</v>
+        <v>21.90749813169777</v>
       </c>
       <c r="D19" t="n">
-        <v>48.21851324824316</v>
+        <v>48.28022910194301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T199</t>
+          <t>T138</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.40164003265383</v>
+        <v>21.98119479998497</v>
       </c>
       <c r="D20" t="n">
-        <v>48.17825426093127</v>
+        <v>48.34209091746697</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T44</t>
+          <t>T148</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.46749820005609</v>
+        <v>22.07449826749127</v>
       </c>
       <c r="D21" t="n">
-        <v>48.02657774362918</v>
+        <v>48.43877121322832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T120</t>
+          <t>T121</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.96516381097585</v>
+        <v>22.15397796128522</v>
       </c>
       <c r="D22" t="n">
-        <v>48.08241314906928</v>
+        <v>48.42222841390716</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T84</t>
+          <t>T90</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.94986328987917</v>
+        <v>22.24993277153792</v>
       </c>
       <c r="D23" t="n">
-        <v>48.41441574587043</v>
+        <v>48.49486552604214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T196</t>
+          <t>T42</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.89356165581541</v>
+        <v>22.49811078042725</v>
       </c>
       <c r="D24" t="n">
-        <v>48.50823813811292</v>
+        <v>48.21851324824316</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T158</t>
+          <t>T199</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.6520706728454</v>
+        <v>22.40164003265383</v>
       </c>
       <c r="D25" t="n">
-        <v>48.77054765182996</v>
+        <v>48.17825426093127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T109</t>
+          <t>T44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.63827973868269</v>
+        <v>22.46749820005609</v>
       </c>
       <c r="D26" t="n">
-        <v>48.81869791726637</v>
+        <v>48.02657774362918</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T135</t>
+          <t>T120</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.34235686723385</v>
+        <v>22.96516381097585</v>
       </c>
       <c r="D27" t="n">
-        <v>48.7711630481665</v>
+        <v>48.08241314906928</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T130</t>
+          <t>T84</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22.29186859483247</v>
+        <v>22.94986328987917</v>
       </c>
       <c r="D28" t="n">
-        <v>48.79175955873109</v>
+        <v>48.41441574587043</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T123</t>
+          <t>T196</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22.26420330530744</v>
+        <v>22.89356165581541</v>
       </c>
       <c r="D29" t="n">
-        <v>48.81605358508728</v>
+        <v>48.50823813811292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T114</t>
+          <t>T158</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22.27166267291808</v>
+        <v>22.6520706728454</v>
       </c>
       <c r="D30" t="n">
-        <v>48.91393697823606</v>
+        <v>48.77054765182996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T21</t>
+          <t>T109</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22.46685627429812</v>
+        <v>22.63827973868269</v>
       </c>
       <c r="D31" t="n">
-        <v>49.03682539575996</v>
+        <v>48.81869791726637</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T74</t>
+          <t>T135</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22.32198105088172</v>
+        <v>22.34235686723385</v>
       </c>
       <c r="D32" t="n">
-        <v>49.08629930654204</v>
+        <v>48.7711630481665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T78</t>
+          <t>T130</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>22.36480186489996</v>
+        <v>22.29186859483247</v>
       </c>
       <c r="D33" t="n">
-        <v>49.17404816260673</v>
+        <v>48.79175955873109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T183</t>
+          <t>T123</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>22.30486985097327</v>
+        <v>22.26420330530744</v>
       </c>
       <c r="D34" t="n">
-        <v>49.31287252588727</v>
+        <v>48.81605358508728</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T118</t>
+          <t>T114</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22.23033988308782</v>
+        <v>22.27166267291808</v>
       </c>
       <c r="D35" t="n">
-        <v>49.20333022018674</v>
+        <v>48.91393697823606</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T110</t>
+          <t>T21</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22.2840804403742</v>
+        <v>22.46685627429812</v>
       </c>
       <c r="D36" t="n">
-        <v>49.13080043708733</v>
+        <v>49.03682539575996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T149</t>
+          <t>T74</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22.02911626157934</v>
+        <v>22.32198105088172</v>
       </c>
       <c r="D37" t="n">
-        <v>49.06916533310034</v>
+        <v>49.08629930654204</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T192</t>
+          <t>T110</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22.06114457564673</v>
+        <v>22.2840804403742</v>
       </c>
       <c r="D38" t="n">
-        <v>49.27581351552092</v>
+        <v>49.13080043708733</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T59</t>
+          <t>T78</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22.10459066446251</v>
+        <v>22.36480186489996</v>
       </c>
       <c r="D39" t="n">
-        <v>49.45756411645058</v>
+        <v>49.17404816260673</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>T125</t>
+          <t>T118</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22.13601681335425</v>
+        <v>22.23033988308782</v>
       </c>
       <c r="D40" t="n">
-        <v>49.46860475682431</v>
+        <v>49.20333022018674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T183</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22.22737538463355</v>
+        <v>22.30486985097327</v>
       </c>
       <c r="D41" t="n">
-        <v>49.61671693346739</v>
+        <v>49.31287252588727</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T94</t>
+          <t>T125</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22.31064603745701</v>
+        <v>22.13601681335425</v>
       </c>
       <c r="D42" t="n">
-        <v>49.65596327701228</v>
+        <v>49.46860475682431</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T174</t>
+          <t>T59</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22.38393656256403</v>
+        <v>22.10459066446251</v>
       </c>
       <c r="D43" t="n">
-        <v>49.71980730817425</v>
+        <v>49.45756411645058</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T132</t>
+          <t>T192</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22.33380960346534</v>
+        <v>22.06114457564673</v>
       </c>
       <c r="D44" t="n">
-        <v>49.75643393398677</v>
+        <v>49.27581351552092</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T146</t>
+          <t>T149</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22.18276218785739</v>
+        <v>22.02911626157934</v>
       </c>
       <c r="D45" t="n">
-        <v>49.86863692078209</v>
+        <v>49.06916533310034</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T188</t>
+          <t>T144</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>22.38637564635662</v>
+        <v>21.76855773555562</v>
       </c>
       <c r="D46" t="n">
-        <v>49.87330304762392</v>
+        <v>49.08572878330673</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T162</t>
+          <t>T23</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22.42477927061089</v>
+        <v>21.83424769353044</v>
       </c>
       <c r="D47" t="n">
-        <v>50.01051500137347</v>
+        <v>49.43658765569801</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>T147</t>
+          <t>T71</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22.48507616642108</v>
+        <v>21.69776797835907</v>
       </c>
       <c r="D48" t="n">
-        <v>49.90586197147698</v>
+        <v>49.40067099097237</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T104</t>
+          <t>T92</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>22.66562406058074</v>
+        <v>21.47163485104908</v>
       </c>
       <c r="D49" t="n">
-        <v>49.92015192412979</v>
+        <v>49.35294625655271</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T82</t>
+          <t>T46</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>22.57124151707905</v>
+        <v>21.3066722792146</v>
       </c>
       <c r="D50" t="n">
-        <v>49.77326993005628</v>
+        <v>49.31792984057274</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>T32</t>
+          <t>T35</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>22.70633975213882</v>
+        <v>21.45849616633783</v>
       </c>
       <c r="D51" t="n">
-        <v>49.66787106018045</v>
+        <v>49.44756218492982</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>T195</t>
+          <t>T185</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22.75182704252814</v>
+        <v>21.45428761683192</v>
       </c>
       <c r="D52" t="n">
-        <v>49.64340326615675</v>
+        <v>49.47298992429005</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>T154</t>
+          <t>T36</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>22.63436726741702</v>
+        <v>21.4119971669258</v>
       </c>
       <c r="D53" t="n">
-        <v>49.48455519852067</v>
+        <v>49.56031392035804</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>T184</t>
+          <t>T99</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>22.67341924801641</v>
+        <v>21.54726663374802</v>
       </c>
       <c r="D54" t="n">
-        <v>49.33914543535039</v>
+        <v>49.63245605305192</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>T191</t>
+          <t>T153</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>22.77299484428752</v>
+        <v>21.58461393375599</v>
       </c>
       <c r="D55" t="n">
-        <v>49.35109085755295</v>
+        <v>49.63079919455102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>T19</t>
+          <t>T73</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>22.81548221037394</v>
+        <v>21.66812342205408</v>
       </c>
       <c r="D56" t="n">
-        <v>49.09767095640144</v>
+        <v>49.62534021989844</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>T45</t>
+          <t>T119</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>22.89084092214868</v>
+        <v>22.10766982922065</v>
       </c>
       <c r="D57" t="n">
-        <v>49.26485459820739</v>
+        <v>50.10682326390469</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T108</t>
+          <t>T146</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>22.9625736005929</v>
+        <v>22.18276218785739</v>
       </c>
       <c r="D58" t="n">
-        <v>49.30711406694088</v>
+        <v>49.86863692078209</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T145</t>
+          <t>T162</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>22.89124919830081</v>
+        <v>22.42477927061089</v>
       </c>
       <c r="D59" t="n">
-        <v>49.44043067803912</v>
+        <v>50.01051500137347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T95</t>
+          <t>T147</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>22.97364757401186</v>
+        <v>22.48507616642108</v>
       </c>
       <c r="D60" t="n">
-        <v>49.71433479699326</v>
+        <v>49.90586197147698</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T133</t>
+          <t>T188</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>22.8457521272747</v>
+        <v>22.38637564635662</v>
       </c>
       <c r="D61" t="n">
-        <v>49.75339923470621</v>
+        <v>49.87330304762392</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>T170</t>
+          <t>T132</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>22.92899208841756</v>
+        <v>22.33380960346534</v>
       </c>
       <c r="D62" t="n">
-        <v>49.81580842046802</v>
+        <v>49.75643393398677</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T80</t>
+          <t>T174</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>22.80670751353816</v>
+        <v>22.38393656256403</v>
       </c>
       <c r="D63" t="n">
-        <v>50.13042041852863</v>
+        <v>49.71980730817425</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T143</t>
+          <t>T94</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>22.82993091088411</v>
+        <v>22.31064603745701</v>
       </c>
       <c r="D64" t="n">
-        <v>50.19165780491549</v>
+        <v>49.65596327701228</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>22.80146965006972</v>
+        <v>22.22737538463355</v>
       </c>
       <c r="D65" t="n">
-        <v>50.31422418879245</v>
+        <v>49.61671693346739</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>T101</t>
+          <t>T154</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22.67634604408246</v>
+        <v>22.63436726741702</v>
       </c>
       <c r="D66" t="n">
-        <v>50.11163572189322</v>
+        <v>49.48455519852067</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T184</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22.66198817680457</v>
+        <v>22.67341924801641</v>
       </c>
       <c r="D67" t="n">
-        <v>50.25682160871605</v>
+        <v>49.33914543535039</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>T60</t>
+          <t>T191</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>22.56593491291588</v>
+        <v>22.77299484428752</v>
       </c>
       <c r="D68" t="n">
-        <v>50.35396129135585</v>
+        <v>49.35109085755295</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>T182</t>
+          <t>T19</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22.66206849940744</v>
+        <v>22.81548221037394</v>
       </c>
       <c r="D69" t="n">
-        <v>50.55193757213316</v>
+        <v>49.09767095640144</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>T38</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>22.83170185524706</v>
+        <v>22.89084092214868</v>
       </c>
       <c r="D70" t="n">
-        <v>50.52000702947019</v>
+        <v>49.26485459820739</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T12</t>
+          <t>T108</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>22.83979039149114</v>
+        <v>22.9625736005929</v>
       </c>
       <c r="D71" t="n">
-        <v>50.52559221180618</v>
+        <v>49.30711406694088</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T53</t>
+          <t>T145</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>22.90278302329367</v>
+        <v>22.89124919830081</v>
       </c>
       <c r="D72" t="n">
-        <v>50.49392396703057</v>
+        <v>49.44043067803912</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T113</t>
+          <t>T95</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22.991334368504</v>
+        <v>22.97364757401186</v>
       </c>
       <c r="D73" t="n">
-        <v>50.58113262653502</v>
+        <v>49.71433479699326</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T105</t>
+          <t>T170</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22.84113011352654</v>
+        <v>22.92899208841756</v>
       </c>
       <c r="D74" t="n">
-        <v>50.69328164711101</v>
+        <v>49.81580842046802</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T133</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>22.6717604003389</v>
+        <v>22.8457521272747</v>
       </c>
       <c r="D75" t="n">
-        <v>50.977036204946</v>
+        <v>49.75339923470621</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>T194</t>
+          <t>T195</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>22.60492870039249</v>
+        <v>22.75182704252814</v>
       </c>
       <c r="D76" t="n">
-        <v>50.89704321510379</v>
+        <v>49.64340326615675</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>T193</t>
+          <t>T32</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22.53393097304377</v>
+        <v>22.70633975213882</v>
       </c>
       <c r="D77" t="n">
-        <v>50.90374658479508</v>
+        <v>49.66787106018045</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>T103</t>
+          <t>T82</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>22.51603436531306</v>
+        <v>22.57124151707905</v>
       </c>
       <c r="D78" t="n">
-        <v>50.76590386193858</v>
+        <v>49.77326993005628</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T22</t>
+          <t>T104</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>22.46436147618307</v>
+        <v>22.66562406058074</v>
       </c>
       <c r="D79" t="n">
-        <v>50.76463504460636</v>
+        <v>49.92015192412979</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>T163</t>
+          <t>T101</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>22.3427347783016</v>
+        <v>22.67634604408246</v>
       </c>
       <c r="D80" t="n">
-        <v>50.73051327968473</v>
+        <v>50.11163572189322</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>T155</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>22.32143951739871</v>
+        <v>22.66198817680457</v>
       </c>
       <c r="D81" t="n">
-        <v>50.73874141859113</v>
+        <v>50.25682160871605</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>T97</t>
+          <t>T80</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>22.28698438222268</v>
+        <v>22.80670751353816</v>
       </c>
       <c r="D82" t="n">
-        <v>50.66563799720392</v>
+        <v>50.13042041852863</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>T186</t>
+          <t>T143</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>22.34673754677039</v>
+        <v>22.82993091088411</v>
       </c>
       <c r="D83" t="n">
-        <v>50.56220254914049</v>
+        <v>50.19165780491549</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>T54</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>22.4446878292689</v>
+        <v>22.80146965006972</v>
       </c>
       <c r="D84" t="n">
-        <v>50.5915062943537</v>
+        <v>50.31422418879245</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T165</t>
+          <t>T53</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>22.4393323197636</v>
+        <v>22.90278302329367</v>
       </c>
       <c r="D85" t="n">
-        <v>50.37551149464844</v>
+        <v>50.49392396703057</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>T57</t>
+          <t>T113</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22.39404514896626</v>
+        <v>22.991334368504</v>
       </c>
       <c r="D86" t="n">
-        <v>50.35985918843276</v>
+        <v>50.58113262653502</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T12</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22.32272204504616</v>
+        <v>22.83979039149114</v>
       </c>
       <c r="D87" t="n">
-        <v>50.27254803371267</v>
+        <v>50.52559221180618</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>T98</t>
+          <t>T38</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22.27642001113545</v>
+        <v>22.83170185524706</v>
       </c>
       <c r="D88" t="n">
-        <v>50.32089119099643</v>
+        <v>50.52000702947019</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>T124</t>
+          <t>T105</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>22.24611034645149</v>
+        <v>22.84113011352654</v>
       </c>
       <c r="D89" t="n">
-        <v>50.30805856164476</v>
+        <v>50.69328164711101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T182</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22.17226038223915</v>
+        <v>22.66206849940744</v>
       </c>
       <c r="D90" t="n">
-        <v>50.46276570200758</v>
+        <v>50.55193757213316</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T119</t>
+          <t>T60</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>22.10766982922065</v>
+        <v>22.56593491291588</v>
       </c>
       <c r="D91" t="n">
-        <v>50.10682326390469</v>
+        <v>50.35396129135585</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>T171</t>
+          <t>T165</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>21.8038052644947</v>
+        <v>22.4393323197636</v>
       </c>
       <c r="D92" t="n">
-        <v>50.33244967346357</v>
+        <v>50.37551149464844</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>T156</t>
+          <t>T57</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21.87837605483819</v>
+        <v>22.39404514896626</v>
       </c>
       <c r="D93" t="n">
-        <v>50.41291591078096</v>
+        <v>50.35985918843276</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>T16</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21.85720126879394</v>
+        <v>22.32272204504616</v>
       </c>
       <c r="D94" t="n">
-        <v>50.53347638750684</v>
+        <v>50.27254803371267</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>T48</t>
+          <t>T124</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22.05722377679372</v>
+        <v>22.24611034645149</v>
       </c>
       <c r="D95" t="n">
-        <v>50.49472393876288</v>
+        <v>50.30805856164476</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T98</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22.01105417506664</v>
+        <v>22.27642001113545</v>
       </c>
       <c r="D96" t="n">
-        <v>50.56363734300332</v>
+        <v>50.32089119099643</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>T168</t>
+          <t>T186</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21.91786015665044</v>
+        <v>22.34673754677039</v>
       </c>
       <c r="D97" t="n">
-        <v>50.68020469890499</v>
+        <v>50.56220254914049</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T54</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>21.91020488525044</v>
+        <v>22.4446878292689</v>
       </c>
       <c r="D98" t="n">
-        <v>50.77562846397481</v>
+        <v>50.5915062943537</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>T24</t>
+          <t>T22</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>21.62710636385014</v>
+        <v>22.46436147618307</v>
       </c>
       <c r="D99" t="n">
-        <v>50.90912781175148</v>
+        <v>50.76463504460636</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>T77</t>
+          <t>T103</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>21.60401022969505</v>
+        <v>22.51603436531306</v>
       </c>
       <c r="D100" t="n">
-        <v>50.82892345083048</v>
+        <v>50.76590386193858</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>T190</t>
+          <t>T194</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>21.53765028705668</v>
+        <v>22.60492870039249</v>
       </c>
       <c r="D101" t="n">
-        <v>50.49909206951998</v>
+        <v>50.89704321510379</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>T41</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>21.62878101483793</v>
+        <v>22.6717604003389</v>
       </c>
       <c r="D102" t="n">
-        <v>50.29266076764554</v>
+        <v>50.977036204946</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>T116</t>
+          <t>T193</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>21.55741095515143</v>
+        <v>22.53393097304377</v>
       </c>
       <c r="D103" t="n">
-        <v>50.25733299374817</v>
+        <v>50.90374658479508</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>T96</t>
+          <t>T163</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21.4149371454229</v>
+        <v>22.3427347783016</v>
       </c>
       <c r="D104" t="n">
-        <v>50.19940325597515</v>
+        <v>50.73051327968473</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T155</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21.20420524818331</v>
+        <v>22.32143951739871</v>
       </c>
       <c r="D105" t="n">
-        <v>50.05869384444556</v>
+        <v>50.73874141859113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>T69</t>
+          <t>T97</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>21.41176755613852</v>
+        <v>22.28698438222268</v>
       </c>
       <c r="D106" t="n">
-        <v>49.9512790916284</v>
+        <v>50.66563799720392</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>T161</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>21.431110709322</v>
+        <v>22.17226038223915</v>
       </c>
       <c r="D107" t="n">
-        <v>49.92264713090093</v>
+        <v>50.46276570200758</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T48</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>21.44352568589091</v>
+        <v>22.05722377679372</v>
       </c>
       <c r="D108" t="n">
-        <v>49.94007575588054</v>
+        <v>50.49472393876288</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>T17</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>21.56148227422855</v>
+        <v>22.01105417506664</v>
       </c>
       <c r="D109" t="n">
-        <v>50.00900957941605</v>
+        <v>50.56363734300332</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>T99</t>
+          <t>T156</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>21.54726663374802</v>
+        <v>21.87837605483819</v>
       </c>
       <c r="D110" t="n">
-        <v>49.63245605305192</v>
+        <v>50.41291591078096</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>T153</t>
+          <t>T171</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>21.58461393375599</v>
+        <v>21.8038052644947</v>
       </c>
       <c r="D111" t="n">
-        <v>49.63079919455102</v>
+        <v>50.33244967346357</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>T73</t>
+          <t>T16</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>21.66812342205408</v>
+        <v>21.85720126879394</v>
       </c>
       <c r="D112" t="n">
-        <v>49.62534021989844</v>
+        <v>50.53347638750684</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>T23</t>
+          <t>T168</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>21.83424769353044</v>
+        <v>21.91786015665044</v>
       </c>
       <c r="D113" t="n">
-        <v>49.43658765569801</v>
+        <v>50.68020469890499</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>T71</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>21.69776797835907</v>
+        <v>21.91020488525044</v>
       </c>
       <c r="D114" t="n">
-        <v>49.40067099097237</v>
+        <v>50.77562846397481</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>T92</t>
+          <t>T24</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>21.47163485104908</v>
+        <v>21.62710636385014</v>
       </c>
       <c r="D115" t="n">
-        <v>49.35294625655271</v>
+        <v>50.90912781175148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>T46</t>
+          <t>T77</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>21.3066722792146</v>
+        <v>21.60401022969505</v>
       </c>
       <c r="D116" t="n">
-        <v>49.31792984057274</v>
+        <v>50.82892345083048</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>T35</t>
+          <t>T190</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21.45849616633783</v>
+        <v>21.53765028705668</v>
       </c>
       <c r="D117" t="n">
-        <v>49.44756218492982</v>
+        <v>50.49909206951998</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>T185</t>
+          <t>T41</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>21.45428761683192</v>
+        <v>21.62878101483793</v>
       </c>
       <c r="D118" t="n">
-        <v>49.47298992429005</v>
+        <v>50.29266076764554</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>T36</t>
+          <t>T116</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>21.4119971669258</v>
+        <v>21.55741095515143</v>
       </c>
       <c r="D119" t="n">
-        <v>49.56031392035804</v>
+        <v>50.25733299374817</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>T11</t>
+          <t>T96</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>20.95839050644464</v>
+        <v>21.4149371454229</v>
       </c>
       <c r="D120" t="n">
-        <v>49.90308393846512</v>
+        <v>50.19940325597515</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>T136</t>
+          <t>T17</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>20.92396598596508</v>
+        <v>21.56148227422855</v>
       </c>
       <c r="D121" t="n">
-        <v>49.92342617259085</v>
+        <v>50.00900957941605</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>T169</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>20.87793184989889</v>
+        <v>21.44352568589091</v>
       </c>
       <c r="D122" t="n">
-        <v>49.97689793668254</v>
+        <v>49.94007575588054</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T161</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>20.74816411401686</v>
+        <v>21.431110709322</v>
       </c>
       <c r="D123" t="n">
-        <v>50.10903831224596</v>
+        <v>49.92264713090093</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>T107</t>
+          <t>T69</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>20.67042388218289</v>
+        <v>21.41176755613852</v>
       </c>
       <c r="D124" t="n">
-        <v>50.14581846028528</v>
+        <v>49.9512790916284</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>T81</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>20.82499738300121</v>
+        <v>21.20420524818331</v>
       </c>
       <c r="D125" t="n">
-        <v>50.21632466898519</v>
+        <v>50.05869384444556</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>T178</t>
+          <t>T11</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>20.86364200997106</v>
+        <v>20.95839050644464</v>
       </c>
       <c r="D126" t="n">
-        <v>50.23891048310147</v>
+        <v>49.90308393846512</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>T37</t>
+          <t>T136</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>20.86292179686844</v>
+        <v>20.92396598596508</v>
       </c>
       <c r="D127" t="n">
-        <v>50.33239864402891</v>
+        <v>49.92342617259085</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>T34</t>
+          <t>T169</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>20.95178976880244</v>
+        <v>20.87793184989889</v>
       </c>
       <c r="D128" t="n">
-        <v>50.21420546027325</v>
+        <v>49.97689793668254</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>T197</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>21.01468515400898</v>
+        <v>20.74816411401686</v>
       </c>
       <c r="D129" t="n">
-        <v>50.27574108879188</v>
+        <v>50.10903831224596</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>T115</t>
+          <t>T107</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>20.99731852853473</v>
+        <v>20.67042388218289</v>
       </c>
       <c r="D130" t="n">
-        <v>50.56468678254415</v>
+        <v>50.14581846028528</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>T28</t>
+          <t>T81</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>21.22011470551798</v>
+        <v>20.82499738300121</v>
       </c>
       <c r="D131" t="n">
-        <v>50.80220888229213</v>
+        <v>50.21632466898519</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>T68</t>
+          <t>T178</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>21.01717202199637</v>
+        <v>20.86364200997106</v>
       </c>
       <c r="D132" t="n">
-        <v>50.85841599758067</v>
+        <v>50.23891048310147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>T139</t>
+          <t>T37</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>21.0010194447725</v>
+        <v>20.86292179686844</v>
       </c>
       <c r="D133" t="n">
-        <v>50.85682517695149</v>
+        <v>50.33239864402891</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>T26</t>
+          <t>T34</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>21.00406387829756</v>
+        <v>20.95178976880244</v>
       </c>
       <c r="D134" t="n">
-        <v>50.82674681255732</v>
+        <v>50.21420546027325</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>T64</t>
+          <t>T197</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>20.49980950134909</v>
+        <v>21.01468515400898</v>
       </c>
       <c r="D135" t="n">
-        <v>50.63109679649818</v>
+        <v>50.27574108879188</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>T50</t>
+          <t>T115</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>20.30684734181417</v>
+        <v>20.99731852853473</v>
       </c>
       <c r="D136" t="n">
-        <v>50.60376164936488</v>
+        <v>50.56468678254415</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>T126</t>
+          <t>T28</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20.26673735440498</v>
+        <v>21.22011470551798</v>
       </c>
       <c r="D137" t="n">
-        <v>50.70442968425132</v>
+        <v>50.80220888229213</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>T200</t>
+          <t>T68</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>20.33112995257929</v>
+        <v>21.01717202199637</v>
       </c>
       <c r="D138" t="n">
-        <v>50.80006616842998</v>
+        <v>50.85841599758067</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>T175</t>
+          <t>T139</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>20.3577450381792</v>
+        <v>21.0010194447725</v>
       </c>
       <c r="D139" t="n">
-        <v>50.92218770917565</v>
+        <v>50.85682517695149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>T62</t>
+          <t>T26</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>20.15315279596908</v>
+        <v>21.00406387829756</v>
       </c>
       <c r="D140" t="n">
-        <v>50.82780913654982</v>
+        <v>50.82674681255732</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>T58</t>
+          <t>T64</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>20.01947136860286</v>
+        <v>20.49980950134909</v>
       </c>
       <c r="D141" t="n">
-        <v>50.92947990602219</v>
+        <v>50.63109679649818</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T50</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>20.03440346441497</v>
+        <v>20.30684734181417</v>
       </c>
       <c r="D142" t="n">
-        <v>50.87126846848258</v>
+        <v>50.60376164936488</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>T52</t>
+          <t>T126</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>20.09554603168248</v>
+        <v>20.26673735440498</v>
       </c>
       <c r="D143" t="n">
-        <v>50.56087780303109</v>
+        <v>50.70442968425132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>T122</t>
+          <t>T200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>20.09106646400109</v>
+        <v>20.33112995257929</v>
       </c>
       <c r="D144" t="n">
-        <v>50.50322922135056</v>
+        <v>50.80006616842998</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>T102</t>
+          <t>T175</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20.40581103990644</v>
+        <v>20.3577450381792</v>
       </c>
       <c r="D145" t="n">
-        <v>50.37836063193293</v>
+        <v>50.92218770917565</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T62</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>20.33969451727492</v>
+        <v>20.15315279596908</v>
       </c>
       <c r="D146" t="n">
-        <v>50.3665487778303</v>
+        <v>50.82780913654982</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>T140</t>
+          <t>T58</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>20.07017397306088</v>
+        <v>20.01947136860286</v>
       </c>
       <c r="D147" t="n">
-        <v>50.25117371686433</v>
+        <v>50.92947990602219</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>T70</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>20.17598654549037</v>
+        <v>20.03440346441497</v>
       </c>
       <c r="D148" t="n">
-        <v>50.15318467692678</v>
+        <v>50.87126846848258</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>T29</t>
+          <t>T52</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>20.21374685327091</v>
+        <v>20.09554603168248</v>
       </c>
       <c r="D149" t="n">
-        <v>50.14655449505263</v>
+        <v>50.56087780303109</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>T180</t>
+          <t>T122</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>20.02564858329871</v>
+        <v>20.09106646400109</v>
       </c>
       <c r="D150" t="n">
-        <v>49.87756294344241</v>
+        <v>50.50322922135056</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>T31</t>
+          <t>T102</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>20.03360805485992</v>
+        <v>20.40581103990644</v>
       </c>
       <c r="D151" t="n">
-        <v>49.81158228985268</v>
+        <v>50.37836063193293</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>20.00667758988888</v>
+        <v>20.33969451727492</v>
       </c>
       <c r="D152" t="n">
-        <v>49.58773201226202</v>
+        <v>50.3665487778303</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>T179</t>
+          <t>T29</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>20.08441865232607</v>
+        <v>20.21374685327091</v>
       </c>
       <c r="D153" t="n">
-        <v>49.63787593963817</v>
+        <v>50.14655449505263</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>T49</t>
+          <t>T70</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>20.12570247764278</v>
+        <v>20.17598654549037</v>
       </c>
       <c r="D154" t="n">
-        <v>49.7481392834047</v>
+        <v>50.15318467692678</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>T198</t>
+          <t>T140</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>20.31560161195109</v>
+        <v>20.07017397306088</v>
       </c>
       <c r="D155" t="n">
-        <v>49.85595307816095</v>
+        <v>50.25117371686433</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T180</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>20.46307035363249</v>
+        <v>20.02564858329871</v>
       </c>
       <c r="D156" t="n">
-        <v>49.73997508208038</v>
+        <v>49.87756294344241</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>T129</t>
+          <t>T31</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>20.68546499725944</v>
+        <v>20.03360805485992</v>
       </c>
       <c r="D157" t="n">
-        <v>49.69317825228996</v>
+        <v>49.81158228985268</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>T112</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>20.68988284196958</v>
+        <v>20.00667758988888</v>
       </c>
       <c r="D158" t="n">
-        <v>49.60132999069651</v>
+        <v>49.58773201226202</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>T88</t>
+          <t>T179</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>20.75196747808012</v>
+        <v>20.08441865232607</v>
       </c>
       <c r="D159" t="n">
-        <v>49.61238821308911</v>
+        <v>49.63787593963817</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>T128</t>
+          <t>T49</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>20.86928172257655</v>
+        <v>20.12570247764278</v>
       </c>
       <c r="D160" t="n">
-        <v>49.32202300791394</v>
+        <v>49.7481392834047</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>T159</t>
+          <t>T198</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>20.83157499727586</v>
+        <v>20.31560161195109</v>
       </c>
       <c r="D161" t="n">
-        <v>49.1208155898854</v>
+        <v>49.85595307816095</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>T66</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>20.57520018624248</v>
+        <v>20.46307035363249</v>
       </c>
       <c r="D162" t="n">
-        <v>49.11891987180256</v>
+        <v>49.73997508208038</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>T176</t>
+          <t>T129</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>20.49182988642214</v>
+        <v>20.68546499725944</v>
       </c>
       <c r="D163" t="n">
-        <v>49.09380034089181</v>
+        <v>49.69317825228996</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>T111</t>
+          <t>T112</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>20.54998630771717</v>
+        <v>20.68988284196958</v>
       </c>
       <c r="D164" t="n">
-        <v>49.18921834924308</v>
+        <v>49.60132999069651</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>T14</t>
+          <t>T88</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>20.60033505851649</v>
+        <v>20.75196747808012</v>
       </c>
       <c r="D165" t="n">
-        <v>49.19434309121375</v>
+        <v>49.61238821308911</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>T141</t>
+          <t>T128</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>20.46612597161149</v>
+        <v>20.86928172257655</v>
       </c>
       <c r="D166" t="n">
-        <v>49.43118286949076</v>
+        <v>49.32202300791394</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>T187</t>
+          <t>T159</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>20.41055189727187</v>
+        <v>20.83157499727586</v>
       </c>
       <c r="D167" t="n">
-        <v>49.22788133622242</v>
+        <v>49.1208155898854</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>T67</t>
+          <t>T100</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>20.16575394815691</v>
+        <v>20.83016064508793</v>
       </c>
       <c r="D168" t="n">
-        <v>49.00528750616957</v>
+        <v>48.79081032154873</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>T131</t>
+          <t>T33</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>20.10073998952312</v>
+        <v>20.83709011025736</v>
       </c>
       <c r="D169" t="n">
-        <v>49.03472085727661</v>
+        <v>48.77425176496686</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>T127</t>
+          <t>T176</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>20.10474034192993</v>
+        <v>20.49182988642214</v>
       </c>
       <c r="D170" t="n">
-        <v>48.95014590705653</v>
+        <v>49.09380034089181</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>T55</t>
+          <t>T66</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>20.20248485846391</v>
+        <v>20.57520018624248</v>
       </c>
       <c r="D171" t="n">
-        <v>48.82788181514175</v>
+        <v>49.11891987180256</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>T65</t>
+          <t>T14</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>20.33497914680504</v>
+        <v>20.60033505851649</v>
       </c>
       <c r="D172" t="n">
-        <v>48.70685809406546</v>
+        <v>49.19434309121375</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>T18</t>
+          <t>T111</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>20.37924547409108</v>
+        <v>20.54998630771717</v>
       </c>
       <c r="D173" t="n">
-        <v>48.84108068811717</v>
+        <v>49.18921834924308</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T141</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>20.50347679431848</v>
+        <v>20.46612597161149</v>
       </c>
       <c r="D174" t="n">
-        <v>48.76199768889987</v>
+        <v>49.43118286949076</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>T47</t>
+          <t>T187</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>20.52715415264181</v>
+        <v>20.41055189727187</v>
       </c>
       <c r="D175" t="n">
-        <v>48.68579703773822</v>
+        <v>49.22788133622242</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>T164</t>
+          <t>T67</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>20.54413817061419</v>
+        <v>20.16575394815691</v>
       </c>
       <c r="D176" t="n">
-        <v>48.5989141392108</v>
+        <v>49.00528750616957</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>T167</t>
+          <t>T131</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>20.50922989847371</v>
+        <v>20.10073998952312</v>
       </c>
       <c r="D177" t="n">
-        <v>48.53617406414931</v>
+        <v>49.03472085727661</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>T85</t>
+          <t>T127</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>20.55127240132715</v>
+        <v>20.10474034192993</v>
       </c>
       <c r="D178" t="n">
-        <v>48.44411727958212</v>
+        <v>48.95014590705653</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>T160</t>
+          <t>T55</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>20.27179439623464</v>
+        <v>20.20248485846391</v>
       </c>
       <c r="D179" t="n">
-        <v>48.48818469591266</v>
+        <v>48.82788181514175</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>T181</t>
+          <t>T65</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>20.32307104270993</v>
+        <v>20.33497914680504</v>
       </c>
       <c r="D180" t="n">
-        <v>48.14278262986168</v>
+        <v>48.70685809406546</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>T76</t>
+          <t>T18</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>20.46266067962001</v>
+        <v>20.37924547409108</v>
       </c>
       <c r="D181" t="n">
-        <v>48.08792821717227</v>
+        <v>48.84108068811717</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>T86</t>
+          <t>T39</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>20.52797810511342</v>
+        <v>20.50347679431848</v>
       </c>
       <c r="D182" t="n">
-        <v>48.32393004686595</v>
+        <v>48.76199768889987</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>T87</t>
+          <t>T47</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>20.7254011267144</v>
+        <v>20.52715415264181</v>
       </c>
       <c r="D183" t="n">
-        <v>48.33234501142572</v>
+        <v>48.68579703773822</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>T166</t>
+          <t>T164</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>20.91205170269959</v>
+        <v>20.54413817061419</v>
       </c>
       <c r="D184" t="n">
-        <v>48.45144620955204</v>
+        <v>48.5989141392108</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>T43</t>
+          <t>T167</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>20.9506581407471</v>
+        <v>20.50922989847371</v>
       </c>
       <c r="D185" t="n">
-        <v>48.47317498374201</v>
+        <v>48.53617406414931</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>T152</t>
+          <t>T85</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20.96653724680729</v>
+        <v>20.55127240132715</v>
       </c>
       <c r="D186" t="n">
-        <v>48.44870683457464</v>
+        <v>48.44411727958212</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>T189</t>
+          <t>T160</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>20.9379302410188</v>
+        <v>20.27179439623464</v>
       </c>
       <c r="D187" t="n">
-        <v>48.38090834085141</v>
+        <v>48.48818469591266</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>T72</t>
+          <t>T181</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>20.99479995535726</v>
+        <v>20.32307104270993</v>
       </c>
       <c r="D188" t="n">
-        <v>48.3690667807255</v>
+        <v>48.14278262986168</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>T91</t>
+          <t>T76</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>21.08601703407404</v>
+        <v>20.46266067962001</v>
       </c>
       <c r="D189" t="n">
-        <v>48.3448234482093</v>
+        <v>48.08792821717227</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>T142</t>
+          <t>T86</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>21.22762934157391</v>
+        <v>20.52797810511342</v>
       </c>
       <c r="D190" t="n">
-        <v>48.13786058557392</v>
+        <v>48.32393004686595</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>T51</t>
+          <t>T87</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>21.25229933781639</v>
+        <v>20.7254011267144</v>
       </c>
       <c r="D191" t="n">
-        <v>48.14008714206874</v>
+        <v>48.33234501142572</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>T75</t>
+          <t>T166</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>21.29379124948973</v>
+        <v>20.91205170269959</v>
       </c>
       <c r="D192" t="n">
-        <v>48.09683963409062</v>
+        <v>48.45144620955204</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>T63</t>
+          <t>T43</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>21.3935830974528</v>
+        <v>20.9506581407471</v>
       </c>
       <c r="D193" t="n">
-        <v>48.11162881124517</v>
+        <v>48.47317498374201</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>T150</t>
+          <t>T152</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>21.45606346719135</v>
+        <v>20.96653724680729</v>
       </c>
       <c r="D194" t="n">
-        <v>48.05626567670127</v>
+        <v>48.44870683457464</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>T189</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>21.4287139383528</v>
+        <v>20.9379302410188</v>
       </c>
       <c r="D195" t="n">
-        <v>48.42099638685701</v>
+        <v>48.38090834085141</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>T93</t>
+          <t>T72</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>21.38655993589873</v>
+        <v>20.99479995535726</v>
       </c>
       <c r="D196" t="n">
-        <v>48.55011746193211</v>
+        <v>48.3690667807255</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T91</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>21.18967665281369</v>
+        <v>21.08601703407404</v>
       </c>
       <c r="D197" t="n">
-        <v>48.77265676673816</v>
+        <v>48.3448234482093</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>T89</t>
+          <t>T142</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>21.12228808441862</v>
+        <v>21.22762934157391</v>
       </c>
       <c r="D198" t="n">
-        <v>48.86590855359692</v>
+        <v>48.13786058557392</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>T33</t>
+          <t>T51</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>20.83709011025736</v>
+        <v>21.25229933781639</v>
       </c>
       <c r="D199" t="n">
-        <v>48.77425176496686</v>
+        <v>48.14008714206874</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>T100</t>
+          <t>T75</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>20.83016064508793</v>
+        <v>21.29379124948973</v>
       </c>
       <c r="D200" t="n">
-        <v>48.79081032154873</v>
+        <v>48.09683963409062</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>T137</t>
+          <t>T63</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>21.04243931185057</v>
+        <v>21.3935830974528</v>
       </c>
       <c r="D201" t="n">
-        <v>49.15426574034797</v>
+        <v>48.11162881124517</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/output_from_input2.xlsx
+++ b/outputs/output_from_input2.xlsx
@@ -452,3202 +452,3202 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T150</t>
+          <t>T114</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.45606346719135</v>
+        <v>22.27166267291808</v>
       </c>
       <c r="D2" t="n">
-        <v>48.05626567670127</v>
+        <v>48.91393697823606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T13</t>
+          <t>T21</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.4287139383528</v>
+        <v>22.46685627429812</v>
       </c>
       <c r="D3" t="n">
-        <v>48.42099638685701</v>
+        <v>49.03682539575996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T93</t>
+          <t>T74</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.38655993589873</v>
+        <v>22.32198105088172</v>
       </c>
       <c r="D4" t="n">
-        <v>48.55011746193211</v>
+        <v>49.08629930654204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T110</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.18967665281369</v>
+        <v>22.2840804403742</v>
       </c>
       <c r="D5" t="n">
-        <v>48.77265676673816</v>
+        <v>49.13080043708733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T89</t>
+          <t>T78</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.12228808441862</v>
+        <v>22.36480186489996</v>
       </c>
       <c r="D6" t="n">
-        <v>48.86590855359692</v>
+        <v>49.17404816260673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T137</t>
+          <t>T183</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.04243931185057</v>
+        <v>22.30486985097327</v>
       </c>
       <c r="D7" t="n">
-        <v>49.15426574034797</v>
+        <v>49.31287252588727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T157</t>
+          <t>T118</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.16428105666231</v>
+        <v>22.23033988308782</v>
       </c>
       <c r="D8" t="n">
-        <v>49.17113165737882</v>
+        <v>49.20333022018674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T134</t>
+          <t>T149</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.24282139100984</v>
+        <v>22.02911626157934</v>
       </c>
       <c r="D9" t="n">
-        <v>49.00693828982322</v>
+        <v>49.06916533310034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T106</t>
+          <t>T192</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.3856760789354</v>
+        <v>22.06114457564673</v>
       </c>
       <c r="D10" t="n">
-        <v>49.01079783051559</v>
+        <v>49.27581351552092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T173</t>
+          <t>T59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.56158647798722</v>
+        <v>22.10459066446251</v>
       </c>
       <c r="D11" t="n">
-        <v>48.89172455145335</v>
+        <v>49.45756411645058</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T177</t>
+          <t>T125</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.54211953233473</v>
+        <v>22.13601681335425</v>
       </c>
       <c r="D12" t="n">
-        <v>48.81663270505458</v>
+        <v>49.46860475682431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T83</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.60688544359926</v>
+        <v>22.22737538463355</v>
       </c>
       <c r="D13" t="n">
-        <v>48.84787180030983</v>
+        <v>49.61671693346739</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T79</t>
+          <t>T94</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.66049301807649</v>
+        <v>22.31064603745701</v>
       </c>
       <c r="D14" t="n">
-        <v>48.75102418137605</v>
+        <v>49.65596327701228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T61</t>
+          <t>T132</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.76657775251489</v>
+        <v>22.33380960346534</v>
       </c>
       <c r="D15" t="n">
-        <v>48.90697757844922</v>
+        <v>49.75643393398677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T56</t>
+          <t>T174</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.89463522661742</v>
+        <v>22.38393656256403</v>
       </c>
       <c r="D16" t="n">
-        <v>48.72514790242909</v>
+        <v>49.71980730817425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T172</t>
+          <t>T154</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.71735775556904</v>
+        <v>22.63436726741702</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5856287256459</v>
+        <v>49.48455519852067</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T151</t>
+          <t>T184</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.64157877862188</v>
+        <v>22.67341924801641</v>
       </c>
       <c r="D18" t="n">
-        <v>48.38865208288166</v>
+        <v>49.33914543535039</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T117</t>
+          <t>T191</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.90749813169777</v>
+        <v>22.77299484428752</v>
       </c>
       <c r="D19" t="n">
-        <v>48.28022910194301</v>
+        <v>49.35109085755295</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T138</t>
+          <t>T19</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.98119479998497</v>
+        <v>22.81548221037394</v>
       </c>
       <c r="D20" t="n">
-        <v>48.34209091746697</v>
+        <v>49.09767095640144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T148</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.07449826749127</v>
+        <v>22.89084092214868</v>
       </c>
       <c r="D21" t="n">
-        <v>48.43877121322832</v>
+        <v>49.26485459820739</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T121</t>
+          <t>T108</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.15397796128522</v>
+        <v>22.9625736005929</v>
       </c>
       <c r="D22" t="n">
-        <v>48.42222841390716</v>
+        <v>49.30711406694088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T90</t>
+          <t>T145</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.24993277153792</v>
+        <v>22.89124919830081</v>
       </c>
       <c r="D23" t="n">
-        <v>48.49486552604214</v>
+        <v>49.44043067803912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T42</t>
+          <t>T95</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.49811078042725</v>
+        <v>22.97364757401186</v>
       </c>
       <c r="D24" t="n">
-        <v>48.21851324824316</v>
+        <v>49.71433479699326</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T199</t>
+          <t>T170</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.40164003265383</v>
+        <v>22.92899208841756</v>
       </c>
       <c r="D25" t="n">
-        <v>48.17825426093127</v>
+        <v>49.81580842046802</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T44</t>
+          <t>T133</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.46749820005609</v>
+        <v>22.8457521272747</v>
       </c>
       <c r="D26" t="n">
-        <v>48.02657774362918</v>
+        <v>49.75339923470621</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T120</t>
+          <t>T195</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.96516381097585</v>
+        <v>22.75182704252814</v>
       </c>
       <c r="D27" t="n">
-        <v>48.08241314906928</v>
+        <v>49.64340326615675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T84</t>
+          <t>T32</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22.94986328987917</v>
+        <v>22.70633975213882</v>
       </c>
       <c r="D28" t="n">
-        <v>48.41441574587043</v>
+        <v>49.66787106018045</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T196</t>
+          <t>T82</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22.89356165581541</v>
+        <v>22.57124151707905</v>
       </c>
       <c r="D29" t="n">
-        <v>48.50823813811292</v>
+        <v>49.77326993005628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T158</t>
+          <t>T104</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22.6520706728454</v>
+        <v>22.66562406058074</v>
       </c>
       <c r="D30" t="n">
-        <v>48.77054765182996</v>
+        <v>49.92015192412979</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T109</t>
+          <t>T147</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22.63827973868269</v>
+        <v>22.48507616642108</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81869791726637</v>
+        <v>49.90586197147698</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T135</t>
+          <t>T162</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22.34235686723385</v>
+        <v>22.42477927061089</v>
       </c>
       <c r="D32" t="n">
-        <v>48.7711630481665</v>
+        <v>50.01051500137347</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T130</t>
+          <t>T188</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>22.29186859483247</v>
+        <v>22.38637564635662</v>
       </c>
       <c r="D33" t="n">
-        <v>48.79175955873109</v>
+        <v>49.87330304762392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T123</t>
+          <t>T146</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>22.26420330530744</v>
+        <v>22.18276218785739</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81605358508728</v>
+        <v>49.86863692078209</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T114</t>
+          <t>T119</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22.27166267291808</v>
+        <v>22.10766982922065</v>
       </c>
       <c r="D35" t="n">
-        <v>48.91393697823606</v>
+        <v>50.10682326390469</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T21</t>
+          <t>T124</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22.46685627429812</v>
+        <v>22.24611034645149</v>
       </c>
       <c r="D36" t="n">
-        <v>49.03682539575996</v>
+        <v>50.30805856164476</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T74</t>
+          <t>T98</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22.32198105088172</v>
+        <v>22.27642001113545</v>
       </c>
       <c r="D37" t="n">
-        <v>49.08629930654204</v>
+        <v>50.32089119099643</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T110</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22.2840804403742</v>
+        <v>22.32272204504616</v>
       </c>
       <c r="D38" t="n">
-        <v>49.13080043708733</v>
+        <v>50.27254803371267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T78</t>
+          <t>T57</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22.36480186489996</v>
+        <v>22.39404514896626</v>
       </c>
       <c r="D39" t="n">
-        <v>49.17404816260673</v>
+        <v>50.35985918843276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>T118</t>
+          <t>T165</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22.23033988308782</v>
+        <v>22.4393323197636</v>
       </c>
       <c r="D40" t="n">
-        <v>49.20333022018674</v>
+        <v>50.37551149464844</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T183</t>
+          <t>T60</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22.30486985097327</v>
+        <v>22.56593491291588</v>
       </c>
       <c r="D41" t="n">
-        <v>49.31287252588727</v>
+        <v>50.35396129135585</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T125</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22.13601681335425</v>
+        <v>22.66198817680457</v>
       </c>
       <c r="D42" t="n">
-        <v>49.46860475682431</v>
+        <v>50.25682160871605</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T59</t>
+          <t>T101</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22.10459066446251</v>
+        <v>22.67634604408246</v>
       </c>
       <c r="D43" t="n">
-        <v>49.45756411645058</v>
+        <v>50.11163572189322</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T192</t>
+          <t>T80</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22.06114457564673</v>
+        <v>22.80670751353816</v>
       </c>
       <c r="D44" t="n">
-        <v>49.27581351552092</v>
+        <v>50.13042041852863</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T149</t>
+          <t>T143</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22.02911626157934</v>
+        <v>22.82993091088411</v>
       </c>
       <c r="D45" t="n">
-        <v>49.06916533310034</v>
+        <v>50.19165780491549</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T144</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21.76855773555562</v>
+        <v>22.80146965006972</v>
       </c>
       <c r="D46" t="n">
-        <v>49.08572878330673</v>
+        <v>50.31422418879245</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T23</t>
+          <t>T182</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>21.83424769353044</v>
+        <v>22.66206849940744</v>
       </c>
       <c r="D47" t="n">
-        <v>49.43658765569801</v>
+        <v>50.55193757213316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>T71</t>
+          <t>T38</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>21.69776797835907</v>
+        <v>22.83170185524706</v>
       </c>
       <c r="D48" t="n">
-        <v>49.40067099097237</v>
+        <v>50.52000702947019</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T92</t>
+          <t>T12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21.47163485104908</v>
+        <v>22.83979039149114</v>
       </c>
       <c r="D49" t="n">
-        <v>49.35294625655271</v>
+        <v>50.52559221180618</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T46</t>
+          <t>T53</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21.3066722792146</v>
+        <v>22.90278302329367</v>
       </c>
       <c r="D50" t="n">
-        <v>49.31792984057274</v>
+        <v>50.49392396703057</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>T35</t>
+          <t>T113</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>21.45849616633783</v>
+        <v>22.991334368504</v>
       </c>
       <c r="D51" t="n">
-        <v>49.44756218492982</v>
+        <v>50.58113262653502</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>T185</t>
+          <t>T105</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21.45428761683192</v>
+        <v>22.84113011352654</v>
       </c>
       <c r="D52" t="n">
-        <v>49.47298992429005</v>
+        <v>50.69328164711101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>T36</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>21.4119971669258</v>
+        <v>22.6717604003389</v>
       </c>
       <c r="D53" t="n">
-        <v>49.56031392035804</v>
+        <v>50.977036204946</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>T99</t>
+          <t>T194</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>21.54726663374802</v>
+        <v>22.60492870039249</v>
       </c>
       <c r="D54" t="n">
-        <v>49.63245605305192</v>
+        <v>50.89704321510379</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>T153</t>
+          <t>T193</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21.58461393375599</v>
+        <v>22.53393097304377</v>
       </c>
       <c r="D55" t="n">
-        <v>49.63079919455102</v>
+        <v>50.90374658479508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>T73</t>
+          <t>T103</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21.66812342205408</v>
+        <v>22.51603436531306</v>
       </c>
       <c r="D56" t="n">
-        <v>49.62534021989844</v>
+        <v>50.76590386193858</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>T119</t>
+          <t>T22</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>22.10766982922065</v>
+        <v>22.46436147618307</v>
       </c>
       <c r="D57" t="n">
-        <v>50.10682326390469</v>
+        <v>50.76463504460636</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T146</t>
+          <t>T163</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>22.18276218785739</v>
+        <v>22.3427347783016</v>
       </c>
       <c r="D58" t="n">
-        <v>49.86863692078209</v>
+        <v>50.73051327968473</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T162</t>
+          <t>T155</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>22.42477927061089</v>
+        <v>22.32143951739871</v>
       </c>
       <c r="D59" t="n">
-        <v>50.01051500137347</v>
+        <v>50.73874141859113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T147</t>
+          <t>T97</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>22.48507616642108</v>
+        <v>22.28698438222268</v>
       </c>
       <c r="D60" t="n">
-        <v>49.90586197147698</v>
+        <v>50.66563799720392</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T188</t>
+          <t>T54</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>22.38637564635662</v>
+        <v>22.4446878292689</v>
       </c>
       <c r="D61" t="n">
-        <v>49.87330304762392</v>
+        <v>50.5915062943537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>T132</t>
+          <t>T186</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>22.33380960346534</v>
+        <v>22.34673754677039</v>
       </c>
       <c r="D62" t="n">
-        <v>49.75643393398677</v>
+        <v>50.56220254914049</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T174</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>22.38393656256403</v>
+        <v>22.17226038223915</v>
       </c>
       <c r="D63" t="n">
-        <v>49.71980730817425</v>
+        <v>50.46276570200758</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T94</t>
+          <t>T48</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>22.31064603745701</v>
+        <v>22.05722377679372</v>
       </c>
       <c r="D64" t="n">
-        <v>49.65596327701228</v>
+        <v>50.49472393876288</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>22.22737538463355</v>
+        <v>22.01105417506664</v>
       </c>
       <c r="D65" t="n">
-        <v>49.61671693346739</v>
+        <v>50.56363734300332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>T154</t>
+          <t>T168</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22.63436726741702</v>
+        <v>21.91786015665044</v>
       </c>
       <c r="D66" t="n">
-        <v>49.48455519852067</v>
+        <v>50.68020469890499</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T184</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22.67341924801641</v>
+        <v>21.91020488525044</v>
       </c>
       <c r="D67" t="n">
-        <v>49.33914543535039</v>
+        <v>50.77562846397481</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>T191</t>
+          <t>T24</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>22.77299484428752</v>
+        <v>21.62710636385014</v>
       </c>
       <c r="D68" t="n">
-        <v>49.35109085755295</v>
+        <v>50.90912781175148</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>T19</t>
+          <t>T77</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22.81548221037394</v>
+        <v>21.60401022969505</v>
       </c>
       <c r="D69" t="n">
-        <v>49.09767095640144</v>
+        <v>50.82892345083048</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>T45</t>
+          <t>T190</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>22.89084092214868</v>
+        <v>21.53765028705668</v>
       </c>
       <c r="D70" t="n">
-        <v>49.26485459820739</v>
+        <v>50.49909206951998</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T108</t>
+          <t>T16</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>22.9625736005929</v>
+        <v>21.85720126879394</v>
       </c>
       <c r="D71" t="n">
-        <v>49.30711406694088</v>
+        <v>50.53347638750684</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T145</t>
+          <t>T156</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>22.89124919830081</v>
+        <v>21.87837605483819</v>
       </c>
       <c r="D72" t="n">
-        <v>49.44043067803912</v>
+        <v>50.41291591078096</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T95</t>
+          <t>T171</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22.97364757401186</v>
+        <v>21.8038052644947</v>
       </c>
       <c r="D73" t="n">
-        <v>49.71433479699326</v>
+        <v>50.33244967346357</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T170</t>
+          <t>T41</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22.92899208841756</v>
+        <v>21.62878101483793</v>
       </c>
       <c r="D74" t="n">
-        <v>49.81580842046802</v>
+        <v>50.29266076764554</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>T133</t>
+          <t>T116</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>22.8457521272747</v>
+        <v>21.55741095515143</v>
       </c>
       <c r="D75" t="n">
-        <v>49.75339923470621</v>
+        <v>50.25733299374817</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>T195</t>
+          <t>T96</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>22.75182704252814</v>
+        <v>21.4149371454229</v>
       </c>
       <c r="D76" t="n">
-        <v>49.64340326615675</v>
+        <v>50.19940325597515</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>T32</t>
+          <t>T17</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22.70633975213882</v>
+        <v>21.56148227422855</v>
       </c>
       <c r="D77" t="n">
-        <v>49.66787106018045</v>
+        <v>50.00900957941605</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>T82</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>22.57124151707905</v>
+        <v>21.20420524818331</v>
       </c>
       <c r="D78" t="n">
-        <v>49.77326993005628</v>
+        <v>50.05869384444556</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T104</t>
+          <t>T69</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>22.66562406058074</v>
+        <v>21.41176755613852</v>
       </c>
       <c r="D79" t="n">
-        <v>49.92015192412979</v>
+        <v>49.9512790916284</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>T101</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>22.67634604408246</v>
+        <v>21.44352568589091</v>
       </c>
       <c r="D80" t="n">
-        <v>50.11163572189322</v>
+        <v>49.94007575588054</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T161</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>22.66198817680457</v>
+        <v>21.431110709322</v>
       </c>
       <c r="D81" t="n">
-        <v>50.25682160871605</v>
+        <v>49.92264713090093</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>T80</t>
+          <t>T99</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>22.80670751353816</v>
+        <v>21.54726663374802</v>
       </c>
       <c r="D82" t="n">
-        <v>50.13042041852863</v>
+        <v>49.63245605305192</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>T143</t>
+          <t>T153</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>22.82993091088411</v>
+        <v>21.58461393375599</v>
       </c>
       <c r="D83" t="n">
-        <v>50.19165780491549</v>
+        <v>49.63079919455102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T73</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>22.80146965006972</v>
+        <v>21.66812342205408</v>
       </c>
       <c r="D84" t="n">
-        <v>50.31422418879245</v>
+        <v>49.62534021989844</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T53</t>
+          <t>T23</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>22.90278302329367</v>
+        <v>21.83424769353044</v>
       </c>
       <c r="D85" t="n">
-        <v>50.49392396703057</v>
+        <v>49.43658765569801</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>T113</t>
+          <t>T71</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22.991334368504</v>
+        <v>21.69776797835907</v>
       </c>
       <c r="D86" t="n">
-        <v>50.58113262653502</v>
+        <v>49.40067099097237</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>T12</t>
+          <t>T92</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22.83979039149114</v>
+        <v>21.47163485104908</v>
       </c>
       <c r="D87" t="n">
-        <v>50.52559221180618</v>
+        <v>49.35294625655271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>T38</t>
+          <t>T35</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22.83170185524706</v>
+        <v>21.45849616633783</v>
       </c>
       <c r="D88" t="n">
-        <v>50.52000702947019</v>
+        <v>49.44756218492982</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>T105</t>
+          <t>T185</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>22.84113011352654</v>
+        <v>21.45428761683192</v>
       </c>
       <c r="D89" t="n">
-        <v>50.69328164711101</v>
+        <v>49.47298992429005</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>T182</t>
+          <t>T36</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22.66206849940744</v>
+        <v>21.4119971669258</v>
       </c>
       <c r="D90" t="n">
-        <v>50.55193757213316</v>
+        <v>49.56031392035804</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T60</t>
+          <t>T11</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>22.56593491291588</v>
+        <v>20.95839050644464</v>
       </c>
       <c r="D91" t="n">
-        <v>50.35396129135585</v>
+        <v>49.90308393846512</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>T165</t>
+          <t>T136</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>22.4393323197636</v>
+        <v>20.92396598596508</v>
       </c>
       <c r="D92" t="n">
-        <v>50.37551149464844</v>
+        <v>49.92342617259085</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>T57</t>
+          <t>T169</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>22.39404514896626</v>
+        <v>20.87793184989889</v>
       </c>
       <c r="D93" t="n">
-        <v>50.35985918843276</v>
+        <v>49.97689793668254</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>22.32272204504616</v>
+        <v>20.74816411401686</v>
       </c>
       <c r="D94" t="n">
-        <v>50.27254803371267</v>
+        <v>50.10903831224596</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>T124</t>
+          <t>T107</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22.24611034645149</v>
+        <v>20.67042388218289</v>
       </c>
       <c r="D95" t="n">
-        <v>50.30805856164476</v>
+        <v>50.14581846028528</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>T98</t>
+          <t>T81</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22.27642001113545</v>
+        <v>20.82499738300121</v>
       </c>
       <c r="D96" t="n">
-        <v>50.32089119099643</v>
+        <v>50.21632466898519</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>T186</t>
+          <t>T178</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>22.34673754677039</v>
+        <v>20.86364200997106</v>
       </c>
       <c r="D97" t="n">
-        <v>50.56220254914049</v>
+        <v>50.23891048310147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>T54</t>
+          <t>T37</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>22.4446878292689</v>
+        <v>20.86292179686844</v>
       </c>
       <c r="D98" t="n">
-        <v>50.5915062943537</v>
+        <v>50.33239864402891</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>T22</t>
+          <t>T34</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>22.46436147618307</v>
+        <v>20.95178976880244</v>
       </c>
       <c r="D99" t="n">
-        <v>50.76463504460636</v>
+        <v>50.21420546027325</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>T103</t>
+          <t>T197</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>22.51603436531306</v>
+        <v>21.01468515400898</v>
       </c>
       <c r="D100" t="n">
-        <v>50.76590386193858</v>
+        <v>50.27574108879188</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>T194</t>
+          <t>T115</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>22.60492870039249</v>
+        <v>20.99731852853473</v>
       </c>
       <c r="D101" t="n">
-        <v>50.89704321510379</v>
+        <v>50.56468678254415</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T28</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>22.6717604003389</v>
+        <v>21.22011470551798</v>
       </c>
       <c r="D102" t="n">
-        <v>50.977036204946</v>
+        <v>50.80220888229213</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>T193</t>
+          <t>T68</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>22.53393097304377</v>
+        <v>21.01717202199637</v>
       </c>
       <c r="D103" t="n">
-        <v>50.90374658479508</v>
+        <v>50.85841599758067</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>T163</t>
+          <t>T139</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22.3427347783016</v>
+        <v>21.0010194447725</v>
       </c>
       <c r="D104" t="n">
-        <v>50.73051327968473</v>
+        <v>50.85682517695149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>T155</t>
+          <t>T26</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>22.32143951739871</v>
+        <v>21.00406387829756</v>
       </c>
       <c r="D105" t="n">
-        <v>50.73874141859113</v>
+        <v>50.82674681255732</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>T97</t>
+          <t>T64</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22.28698438222268</v>
+        <v>20.49980950134909</v>
       </c>
       <c r="D106" t="n">
-        <v>50.66563799720392</v>
+        <v>50.63109679649818</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T50</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>22.17226038223915</v>
+        <v>20.30684734181417</v>
       </c>
       <c r="D107" t="n">
-        <v>50.46276570200758</v>
+        <v>50.60376164936488</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>T48</t>
+          <t>T126</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>22.05722377679372</v>
+        <v>20.26673735440498</v>
       </c>
       <c r="D108" t="n">
-        <v>50.49472393876288</v>
+        <v>50.70442968425132</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T200</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>22.01105417506664</v>
+        <v>20.33112995257929</v>
       </c>
       <c r="D109" t="n">
-        <v>50.56363734300332</v>
+        <v>50.80006616842998</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>T156</t>
+          <t>T175</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>21.87837605483819</v>
+        <v>20.3577450381792</v>
       </c>
       <c r="D110" t="n">
-        <v>50.41291591078096</v>
+        <v>50.92218770917565</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>T171</t>
+          <t>T62</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>21.8038052644947</v>
+        <v>20.15315279596908</v>
       </c>
       <c r="D111" t="n">
-        <v>50.33244967346357</v>
+        <v>50.82780913654982</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>T16</t>
+          <t>T58</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>21.85720126879394</v>
+        <v>20.01947136860286</v>
       </c>
       <c r="D112" t="n">
-        <v>50.53347638750684</v>
+        <v>50.92947990602219</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>T168</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>21.91786015665044</v>
+        <v>20.03440346441497</v>
       </c>
       <c r="D113" t="n">
-        <v>50.68020469890499</v>
+        <v>50.87126846848258</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T52</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>21.91020488525044</v>
+        <v>20.09554603168248</v>
       </c>
       <c r="D114" t="n">
-        <v>50.77562846397481</v>
+        <v>50.56087780303109</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>T24</t>
+          <t>T122</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>21.62710636385014</v>
+        <v>20.09106646400109</v>
       </c>
       <c r="D115" t="n">
-        <v>50.90912781175148</v>
+        <v>50.50322922135056</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>T77</t>
+          <t>T102</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>21.60401022969505</v>
+        <v>20.40581103990644</v>
       </c>
       <c r="D116" t="n">
-        <v>50.82892345083048</v>
+        <v>50.37836063193293</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>T190</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21.53765028705668</v>
+        <v>20.33969451727492</v>
       </c>
       <c r="D117" t="n">
-        <v>50.49909206951998</v>
+        <v>50.3665487778303</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>T41</t>
+          <t>T140</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>21.62878101483793</v>
+        <v>20.07017397306088</v>
       </c>
       <c r="D118" t="n">
-        <v>50.29266076764554</v>
+        <v>50.25117371686433</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>T116</t>
+          <t>T70</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>21.55741095515143</v>
+        <v>20.17598654549037</v>
       </c>
       <c r="D119" t="n">
-        <v>50.25733299374817</v>
+        <v>50.15318467692678</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>T96</t>
+          <t>T29</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>21.4149371454229</v>
+        <v>20.21374685327091</v>
       </c>
       <c r="D120" t="n">
-        <v>50.19940325597515</v>
+        <v>50.14655449505263</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>T17</t>
+          <t>T180</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>21.56148227422855</v>
+        <v>20.02564858329871</v>
       </c>
       <c r="D121" t="n">
-        <v>50.00900957941605</v>
+        <v>49.87756294344241</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T31</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>21.44352568589091</v>
+        <v>20.03360805485992</v>
       </c>
       <c r="D122" t="n">
-        <v>49.94007575588054</v>
+        <v>49.81158228985268</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>T161</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>21.431110709322</v>
+        <v>20.00667758988888</v>
       </c>
       <c r="D123" t="n">
-        <v>49.92264713090093</v>
+        <v>49.58773201226202</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>T69</t>
+          <t>T179</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>21.41176755613852</v>
+        <v>20.08441865232607</v>
       </c>
       <c r="D124" t="n">
-        <v>49.9512790916284</v>
+        <v>49.63787593963817</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T49</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>21.20420524818331</v>
+        <v>20.12570247764278</v>
       </c>
       <c r="D125" t="n">
-        <v>50.05869384444556</v>
+        <v>49.7481392834047</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>T11</t>
+          <t>T198</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>20.95839050644464</v>
+        <v>20.31560161195109</v>
       </c>
       <c r="D126" t="n">
-        <v>49.90308393846512</v>
+        <v>49.85595307816095</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>T136</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>20.92396598596508</v>
+        <v>20.46307035363249</v>
       </c>
       <c r="D127" t="n">
-        <v>49.92342617259085</v>
+        <v>49.73997508208038</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>T169</t>
+          <t>T129</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>20.87793184989889</v>
+        <v>20.68546499725944</v>
       </c>
       <c r="D128" t="n">
-        <v>49.97689793668254</v>
+        <v>49.69317825228996</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T88</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>20.74816411401686</v>
+        <v>20.75196747808012</v>
       </c>
       <c r="D129" t="n">
-        <v>50.10903831224596</v>
+        <v>49.61238821308911</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>T107</t>
+          <t>T112</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>20.67042388218289</v>
+        <v>20.68988284196958</v>
       </c>
       <c r="D130" t="n">
-        <v>50.14581846028528</v>
+        <v>49.60132999069651</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>T81</t>
+          <t>T141</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>20.82499738300121</v>
+        <v>20.46612597161149</v>
       </c>
       <c r="D131" t="n">
-        <v>50.21632466898519</v>
+        <v>49.43118286949076</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>T178</t>
+          <t>T128</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>20.86364200997106</v>
+        <v>20.86928172257655</v>
       </c>
       <c r="D132" t="n">
-        <v>50.23891048310147</v>
+        <v>49.32202300791394</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>T37</t>
+          <t>T159</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>20.86292179686844</v>
+        <v>20.83157499727586</v>
       </c>
       <c r="D133" t="n">
-        <v>50.33239864402891</v>
+        <v>49.1208155898854</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>T34</t>
+          <t>T14</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>20.95178976880244</v>
+        <v>20.60033505851649</v>
       </c>
       <c r="D134" t="n">
-        <v>50.21420546027325</v>
+        <v>49.19434309121375</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>T197</t>
+          <t>T111</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>21.01468515400898</v>
+        <v>20.54998630771717</v>
       </c>
       <c r="D135" t="n">
-        <v>50.27574108879188</v>
+        <v>49.18921834924308</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>T115</t>
+          <t>T66</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>20.99731852853473</v>
+        <v>20.57520018624248</v>
       </c>
       <c r="D136" t="n">
-        <v>50.56468678254415</v>
+        <v>49.11891987180256</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>T28</t>
+          <t>T176</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>21.22011470551798</v>
+        <v>20.49182988642214</v>
       </c>
       <c r="D137" t="n">
-        <v>50.80220888229213</v>
+        <v>49.09380034089181</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>T68</t>
+          <t>T187</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>21.01717202199637</v>
+        <v>20.41055189727187</v>
       </c>
       <c r="D138" t="n">
-        <v>50.85841599758067</v>
+        <v>49.22788133622242</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>T139</t>
+          <t>T67</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>21.0010194447725</v>
+        <v>20.16575394815691</v>
       </c>
       <c r="D139" t="n">
-        <v>50.85682517695149</v>
+        <v>49.00528750616957</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>T26</t>
+          <t>T131</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>21.00406387829756</v>
+        <v>20.10073998952312</v>
       </c>
       <c r="D140" t="n">
-        <v>50.82674681255732</v>
+        <v>49.03472085727661</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>T64</t>
+          <t>T127</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>20.49980950134909</v>
+        <v>20.10474034192993</v>
       </c>
       <c r="D141" t="n">
-        <v>50.63109679649818</v>
+        <v>48.95014590705653</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>T50</t>
+          <t>T55</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>20.30684734181417</v>
+        <v>20.20248485846391</v>
       </c>
       <c r="D142" t="n">
-        <v>50.60376164936488</v>
+        <v>48.82788181514175</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>T126</t>
+          <t>T18</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>20.26673735440498</v>
+        <v>20.37924547409108</v>
       </c>
       <c r="D143" t="n">
-        <v>50.70442968425132</v>
+        <v>48.84108068811717</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>T200</t>
+          <t>T39</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>20.33112995257929</v>
+        <v>20.50347679431848</v>
       </c>
       <c r="D144" t="n">
-        <v>50.80006616842998</v>
+        <v>48.76199768889987</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>T175</t>
+          <t>T47</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20.3577450381792</v>
+        <v>20.52715415264181</v>
       </c>
       <c r="D145" t="n">
-        <v>50.92218770917565</v>
+        <v>48.68579703773822</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>T62</t>
+          <t>T65</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>20.15315279596908</v>
+        <v>20.33497914680504</v>
       </c>
       <c r="D146" t="n">
-        <v>50.82780913654982</v>
+        <v>48.70685809406546</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>T58</t>
+          <t>T160</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>20.01947136860286</v>
+        <v>20.27179439623464</v>
       </c>
       <c r="D147" t="n">
-        <v>50.92947990602219</v>
+        <v>48.48818469591266</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T164</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>20.03440346441497</v>
+        <v>20.54413817061419</v>
       </c>
       <c r="D148" t="n">
-        <v>50.87126846848258</v>
+        <v>48.5989141392108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>T52</t>
+          <t>T167</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>20.09554603168248</v>
+        <v>20.50922989847371</v>
       </c>
       <c r="D149" t="n">
-        <v>50.56087780303109</v>
+        <v>48.53617406414931</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>T122</t>
+          <t>T85</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>20.09106646400109</v>
+        <v>20.55127240132715</v>
       </c>
       <c r="D150" t="n">
-        <v>50.50322922135056</v>
+        <v>48.44411727958212</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>T102</t>
+          <t>T86</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>20.40581103990644</v>
+        <v>20.52797810511342</v>
       </c>
       <c r="D151" t="n">
-        <v>50.37836063193293</v>
+        <v>48.32393004686595</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T181</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>20.33969451727492</v>
+        <v>20.32307104270993</v>
       </c>
       <c r="D152" t="n">
-        <v>50.3665487778303</v>
+        <v>48.14278262986168</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>T29</t>
+          <t>T76</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>20.21374685327091</v>
+        <v>20.46266067962001</v>
       </c>
       <c r="D153" t="n">
-        <v>50.14655449505263</v>
+        <v>48.08792821717227</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>T70</t>
+          <t>T87</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>20.17598654549037</v>
+        <v>20.7254011267144</v>
       </c>
       <c r="D154" t="n">
-        <v>50.15318467692678</v>
+        <v>48.33234501142572</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>T140</t>
+          <t>T100</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>20.07017397306088</v>
+        <v>20.83016064508793</v>
       </c>
       <c r="D155" t="n">
-        <v>50.25117371686433</v>
+        <v>48.79081032154873</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>T180</t>
+          <t>T33</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>20.02564858329871</v>
+        <v>20.83709011025736</v>
       </c>
       <c r="D156" t="n">
-        <v>49.87756294344241</v>
+        <v>48.77425176496686</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>T31</t>
+          <t>T166</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>20.03360805485992</v>
+        <v>20.91205170269959</v>
       </c>
       <c r="D157" t="n">
-        <v>49.81158228985268</v>
+        <v>48.45144620955204</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T43</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>20.00667758988888</v>
+        <v>20.9506581407471</v>
       </c>
       <c r="D158" t="n">
-        <v>49.58773201226202</v>
+        <v>48.47317498374201</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>T179</t>
+          <t>T152</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>20.08441865232607</v>
+        <v>20.96653724680729</v>
       </c>
       <c r="D159" t="n">
-        <v>49.63787593963817</v>
+        <v>48.44870683457464</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>T49</t>
+          <t>T189</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>20.12570247764278</v>
+        <v>20.9379302410188</v>
       </c>
       <c r="D160" t="n">
-        <v>49.7481392834047</v>
+        <v>48.38090834085141</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>T198</t>
+          <t>T72</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>20.31560161195109</v>
+        <v>20.99479995535726</v>
       </c>
       <c r="D161" t="n">
-        <v>49.85595307816095</v>
+        <v>48.3690667807255</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T91</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>20.46307035363249</v>
+        <v>21.08601703407404</v>
       </c>
       <c r="D162" t="n">
-        <v>49.73997508208038</v>
+        <v>48.3448234482093</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>T129</t>
+          <t>T142</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>20.68546499725944</v>
+        <v>21.22762934157391</v>
       </c>
       <c r="D163" t="n">
-        <v>49.69317825228996</v>
+        <v>48.13786058557392</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>T112</t>
+          <t>T51</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>20.68988284196958</v>
+        <v>21.25229933781639</v>
       </c>
       <c r="D164" t="n">
-        <v>49.60132999069651</v>
+        <v>48.14008714206874</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>T88</t>
+          <t>T75</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>20.75196747808012</v>
+        <v>21.29379124948973</v>
       </c>
       <c r="D165" t="n">
-        <v>49.61238821308911</v>
+        <v>48.09683963409062</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>T128</t>
+          <t>T63</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>20.86928172257655</v>
+        <v>21.3935830974528</v>
       </c>
       <c r="D166" t="n">
-        <v>49.32202300791394</v>
+        <v>48.11162881124517</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>T159</t>
+          <t>T150</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>20.83157499727586</v>
+        <v>21.45606346719135</v>
       </c>
       <c r="D167" t="n">
-        <v>49.1208155898854</v>
+        <v>48.05626567670127</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>T100</t>
+          <t>T13</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>20.83016064508793</v>
+        <v>21.4287139383528</v>
       </c>
       <c r="D168" t="n">
-        <v>48.79081032154873</v>
+        <v>48.42099638685701</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>T33</t>
+          <t>T93</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>20.83709011025736</v>
+        <v>21.38655993589873</v>
       </c>
       <c r="D169" t="n">
-        <v>48.77425176496686</v>
+        <v>48.55011746193211</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>T176</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>20.49182988642214</v>
+        <v>21.18967665281369</v>
       </c>
       <c r="D170" t="n">
-        <v>49.09380034089181</v>
+        <v>48.77265676673816</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>T66</t>
+          <t>T89</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>20.57520018624248</v>
+        <v>21.12228808441862</v>
       </c>
       <c r="D171" t="n">
-        <v>49.11891987180256</v>
+        <v>48.86590855359692</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>T14</t>
+          <t>T134</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>20.60033505851649</v>
+        <v>21.24282139100984</v>
       </c>
       <c r="D172" t="n">
-        <v>49.19434309121375</v>
+        <v>49.00693828982322</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>T111</t>
+          <t>T137</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>20.54998630771717</v>
+        <v>21.04243931185057</v>
       </c>
       <c r="D173" t="n">
-        <v>49.18921834924308</v>
+        <v>49.15426574034797</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>T141</t>
+          <t>T157</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>20.46612597161149</v>
+        <v>21.16428105666231</v>
       </c>
       <c r="D174" t="n">
-        <v>49.43118286949076</v>
+        <v>49.17113165737882</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>T187</t>
+          <t>T46</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>20.41055189727187</v>
+        <v>21.3066722792146</v>
       </c>
       <c r="D175" t="n">
-        <v>49.22788133622242</v>
+        <v>49.31792984057274</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>T67</t>
+          <t>T106</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>20.16575394815691</v>
+        <v>21.3856760789354</v>
       </c>
       <c r="D176" t="n">
-        <v>49.00528750616957</v>
+        <v>49.01079783051559</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>T131</t>
+          <t>T144</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>20.10073998952312</v>
+        <v>21.76855773555562</v>
       </c>
       <c r="D177" t="n">
-        <v>49.03472085727661</v>
+        <v>49.08572878330673</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>T127</t>
+          <t>T61</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>20.10474034192993</v>
+        <v>21.76657775251489</v>
       </c>
       <c r="D178" t="n">
-        <v>48.95014590705653</v>
+        <v>48.90697757844922</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>T55</t>
+          <t>T83</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>20.20248485846391</v>
+        <v>21.60688544359926</v>
       </c>
       <c r="D179" t="n">
-        <v>48.82788181514175</v>
+        <v>48.84787180030983</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>T65</t>
+          <t>T173</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>20.33497914680504</v>
+        <v>21.56158647798722</v>
       </c>
       <c r="D180" t="n">
-        <v>48.70685809406546</v>
+        <v>48.89172455145335</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>T18</t>
+          <t>T177</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>20.37924547409108</v>
+        <v>21.54211953233473</v>
       </c>
       <c r="D181" t="n">
-        <v>48.84108068811717</v>
+        <v>48.81663270505458</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T79</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>20.50347679431848</v>
+        <v>21.66049301807649</v>
       </c>
       <c r="D182" t="n">
-        <v>48.76199768889987</v>
+        <v>48.75102418137605</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>T47</t>
+          <t>T56</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>20.52715415264181</v>
+        <v>21.89463522661742</v>
       </c>
       <c r="D183" t="n">
-        <v>48.68579703773822</v>
+        <v>48.72514790242909</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>T164</t>
+          <t>T172</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>20.54413817061419</v>
+        <v>21.71735775556904</v>
       </c>
       <c r="D184" t="n">
-        <v>48.5989141392108</v>
+        <v>48.5856287256459</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>T167</t>
+          <t>T151</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>20.50922989847371</v>
+        <v>21.64157877862188</v>
       </c>
       <c r="D185" t="n">
-        <v>48.53617406414931</v>
+        <v>48.38865208288166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>T85</t>
+          <t>T117</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20.55127240132715</v>
+        <v>21.90749813169777</v>
       </c>
       <c r="D186" t="n">
-        <v>48.44411727958212</v>
+        <v>48.28022910194301</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>T160</t>
+          <t>T138</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>20.27179439623464</v>
+        <v>21.98119479998497</v>
       </c>
       <c r="D187" t="n">
-        <v>48.48818469591266</v>
+        <v>48.34209091746697</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>T181</t>
+          <t>T148</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>20.32307104270993</v>
+        <v>22.07449826749127</v>
       </c>
       <c r="D188" t="n">
-        <v>48.14278262986168</v>
+        <v>48.43877121322832</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>T76</t>
+          <t>T121</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>20.46266067962001</v>
+        <v>22.15397796128522</v>
       </c>
       <c r="D189" t="n">
-        <v>48.08792821717227</v>
+        <v>48.42222841390716</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>T86</t>
+          <t>T90</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>20.52797810511342</v>
+        <v>22.24993277153792</v>
       </c>
       <c r="D190" t="n">
-        <v>48.32393004686595</v>
+        <v>48.49486552604214</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>T87</t>
+          <t>T42</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>20.7254011267144</v>
+        <v>22.49811078042725</v>
       </c>
       <c r="D191" t="n">
-        <v>48.33234501142572</v>
+        <v>48.21851324824316</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>T166</t>
+          <t>T199</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>20.91205170269959</v>
+        <v>22.40164003265383</v>
       </c>
       <c r="D192" t="n">
-        <v>48.45144620955204</v>
+        <v>48.17825426093127</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>T43</t>
+          <t>T44</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>20.9506581407471</v>
+        <v>22.46749820005609</v>
       </c>
       <c r="D193" t="n">
-        <v>48.47317498374201</v>
+        <v>48.02657774362918</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>T152</t>
+          <t>T120</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>20.96653724680729</v>
+        <v>22.96516381097585</v>
       </c>
       <c r="D194" t="n">
-        <v>48.44870683457464</v>
+        <v>48.08241314906928</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>T189</t>
+          <t>T84</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>20.9379302410188</v>
+        <v>22.94986328987917</v>
       </c>
       <c r="D195" t="n">
-        <v>48.38090834085141</v>
+        <v>48.41441574587043</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>T72</t>
+          <t>T196</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>20.99479995535726</v>
+        <v>22.89356165581541</v>
       </c>
       <c r="D196" t="n">
-        <v>48.3690667807255</v>
+        <v>48.50823813811292</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>T91</t>
+          <t>T158</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>21.08601703407404</v>
+        <v>22.6520706728454</v>
       </c>
       <c r="D197" t="n">
-        <v>48.3448234482093</v>
+        <v>48.77054765182996</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>T142</t>
+          <t>T109</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>21.22762934157391</v>
+        <v>22.63827973868269</v>
       </c>
       <c r="D198" t="n">
-        <v>48.13786058557392</v>
+        <v>48.81869791726637</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>T51</t>
+          <t>T135</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>21.25229933781639</v>
+        <v>22.34235686723385</v>
       </c>
       <c r="D199" t="n">
-        <v>48.14008714206874</v>
+        <v>48.7711630481665</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>T75</t>
+          <t>T130</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>21.29379124948973</v>
+        <v>22.29186859483247</v>
       </c>
       <c r="D200" t="n">
-        <v>48.09683963409062</v>
+        <v>48.79175955873109</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>T63</t>
+          <t>T123</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>21.3935830974528</v>
+        <v>22.26420330530744</v>
       </c>
       <c r="D201" t="n">
-        <v>48.11162881124517</v>
+        <v>48.81605358508728</v>
       </c>
     </row>
   </sheetData>
